--- a/Mint-Locations.xlsx
+++ b/Mint-Locations.xlsx
@@ -803,10 +803,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="4">
+        <v>27.883191</v>
+      </c>
+      <c r="C27" s="4">
         <v>40.3855645</v>
-      </c>
-      <c r="C27" s="4">
-        <v>27.883191</v>
       </c>
     </row>
     <row r="28">

--- a/Mint-Locations.xlsx
+++ b/Mint-Locations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/webbc01/Desktop/ByzCoinsMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D05A35-8F01-1F42-ACEA-CB55CDEAAE56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70414A93-3D4E-D943-B241-5BEC2C1A6AB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>Mint</t>
   </si>
@@ -72,7 +72,7 @@
     <t>Amida</t>
   </si>
   <si>
-    <t>I remember I have the wrong one of these</t>
+    <t xml:space="preserve">The other one in Turkey https://tools.wmflabs.org/geohack/geohack.php?pagename=Diyarbak%C4%B1r&amp;params=37.91_N_40.24_E_region:TR_type:city(930266) </t>
   </si>
   <si>
     <t>Antioch</t>
@@ -93,9 +93,15 @@
     <t>Beneventum</t>
   </si>
   <si>
+    <t>This is the Beneventum in southern Italy.  https://tools.wmflabs.org/geohack/geohack.php?pagename=Benevento&amp;params=41_08_N_14_47_E_region:IT_type:city(59789)</t>
+  </si>
+  <si>
     <t>Caesarea</t>
   </si>
   <si>
+    <t>The one in Israel  https://tools.wmflabs.org/geohack/geohack.php?pagename=Caesarea_Maritima&amp;params=32_30_0_N_34_53_30_E_type:landmark</t>
+  </si>
+  <si>
     <t>Carthage</t>
   </si>
   <si>
@@ -105,6 +111,9 @@
     <t>Cherson</t>
   </si>
   <si>
+    <t>Not the one that is still standing! The hard to find long abandoned one! https://tools.wmflabs.org/geohack/geohack.php?pagename=Chersonesus&amp;params=44_36_42_N_33_29_36_E_type:landmark</t>
+  </si>
+  <si>
     <t>Constantinople</t>
   </si>
   <si>
@@ -150,7 +159,7 @@
     <t>Magnesia</t>
   </si>
   <si>
-    <t>I remember that this is the wrong one as well</t>
+    <t xml:space="preserve">The one in Turkey https://tools.wmflabs.org/geohack/geohack.php?pagename=Magnesia_ad_Sipylum&amp;params=38_37_N_27_26_E_region:TR_type:landmark </t>
   </si>
   <si>
     <t>Merida</t>
@@ -196,6 +205,9 @@
   </si>
   <si>
     <t>Sis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This should be the Sis in Cilician Armenia.  https://tools.wmflabs.org/geohack/geohack.php?pagename=Sis_(ancient_city)&amp;params=37_26_40_N_35_48_37_E_type:landmark </t>
   </si>
   <si>
     <t>Spain</t>
@@ -235,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -248,7 +260,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF363636"/>
-      <name val="&quot;Helvetica Neue&quot;"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
@@ -270,11 +282,6 @@
       <sz val="9"/>
       <color rgb="FF999999"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF363636"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="7">
@@ -327,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -336,9 +343,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -354,7 +360,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
@@ -792,10 +798,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="8">
-        <v>37.912245499999997</v>
-      </c>
-      <c r="C6" s="8">
-        <v>40.233444499999997</v>
+        <v>40.24</v>
+      </c>
+      <c r="C6" s="4">
+        <v>37.909999999999997</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>9</v>
@@ -827,10 +833,10 @@
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>36.162005000000001</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>36.200449999999996</v>
       </c>
       <c r="D7" s="3"/>
@@ -861,7 +867,7 @@
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="6"/>
       <c r="D8" s="5" t="s">
         <v>12</v>
@@ -936,38 +942,44 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="4">
-        <v>10.727138</v>
-      </c>
-      <c r="C11" s="4">
-        <v>45.437710000000003</v>
+      <c r="B11">
+        <v>14.783333000000001</v>
+      </c>
+      <c r="C11">
+        <v>41.133333</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4">
-        <v>37.252503333299998</v>
+        <v>17</v>
+      </c>
+      <c r="B12" s="8">
+        <v>34.891666999999998</v>
       </c>
       <c r="C12" s="4">
-        <v>35.903734999999998</v>
+        <v>32.5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="4">
+        <v>19</v>
+      </c>
+      <c r="B13">
         <v>10.318</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>36.850032499999998</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4">
         <v>15.088141999999999</v>
@@ -978,16 +990,18 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="10">
-        <v>32.605552000000003</v>
-      </c>
-      <c r="C15" s="10">
-        <v>46.626978999999999</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="B15" s="8">
+        <v>33.493333</v>
+      </c>
+      <c r="C15" s="8">
+        <v>44.611666999999997</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="11"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1012,7 +1026,7 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16" s="4">
         <v>28.961291608300002</v>
@@ -1022,42 +1036,42 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="14">
+      <c r="A17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="13">
         <v>33.254298850200001</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>35.031116644000001</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18" s="4">
         <v>36.309102000000003</v>
@@ -1068,7 +1082,7 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19" s="4">
         <v>31.233419000000001</v>
@@ -1079,7 +1093,7 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20" s="4">
         <v>37.156824999999998</v>
@@ -1090,9 +1104,9 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="10">
+        <v>28</v>
+      </c>
+      <c r="B21" s="8">
         <v>41.415005999999998</v>
       </c>
       <c r="C21" s="4">
@@ -1101,7 +1115,7 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1133,12 +1147,12 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -1164,38 +1178,38 @@
       <c r="Z23" s="6"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
+      <c r="A24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2">
         <v>35.890729999999998</v>
@@ -1229,7 +1243,7 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B26" s="4">
         <v>35.234155999999999</v>
@@ -1240,7 +1254,7 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B27" s="4">
         <v>27.883191</v>
@@ -1251,7 +1265,7 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B28" s="4">
         <v>6.7682500000000001</v>
@@ -1261,44 +1275,44 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="17">
-        <v>22.75</v>
-      </c>
-      <c r="C29" s="17">
-        <v>39.75</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
+      <c r="A29" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="8">
+        <v>27.433333000000001</v>
+      </c>
+      <c r="C29" s="16">
+        <v>38.616667</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B30" s="4">
         <v>-6.3412129999999998</v>
@@ -1308,38 +1322,38 @@
       </c>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A31" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
+      <c r="A31" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B32" s="4">
         <v>26.547048</v>
@@ -1350,7 +1364,7 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B33" s="4">
         <v>35.262911000000003</v>
@@ -1361,7 +1375,7 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B34" s="4">
         <v>29.919886999999999</v>
@@ -1372,15 +1386,15 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="10">
+        <v>44</v>
+      </c>
+      <c r="B35" s="8">
         <v>28.516943000000001</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="8">
         <v>38.355117999999997</v>
       </c>
-      <c r="D35" s="19"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -1406,7 +1420,7 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B36" s="4">
         <v>24.749473999999999</v>
@@ -1440,16 +1454,16 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="10">
+        <v>46</v>
+      </c>
+      <c r="B37" s="8">
         <v>18.093878</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="8">
         <v>42.650165999999999</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="E37" s="12"/>
+      <c r="E37" s="11"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -1474,7 +1488,7 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B38" s="4">
         <v>12.196604000000001</v>
@@ -1485,7 +1499,7 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B39" s="4">
         <v>12.486136999999999</v>
@@ -1495,42 +1509,42 @@
       </c>
     </row>
     <row r="40" spans="1:26" ht="13">
-      <c r="A40" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="14">
+      <c r="A40" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="13">
         <v>8.9181537340200006</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="13">
         <v>40.043394041100001</v>
       </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
     </row>
     <row r="41" spans="1:26" ht="13">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B41" s="4">
         <v>27.340306999999999</v>
@@ -1541,16 +1555,16 @@
     </row>
     <row r="42" spans="1:26" ht="13">
       <c r="A42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="10">
+        <v>51</v>
+      </c>
+      <c r="B42" s="8">
         <v>31.47777</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="8">
         <v>36.886223999999999</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="12"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -1574,47 +1588,49 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="13">
-      <c r="A43" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="15"/>
-      <c r="X43" s="15"/>
-      <c r="Y43" s="15"/>
-      <c r="Z43" s="15"/>
+      <c r="A43" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="14"/>
+      <c r="Y43" s="14"/>
+      <c r="Z43" s="14"/>
     </row>
     <row r="44" spans="1:26" ht="13">
       <c r="A44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="10">
-        <v>16.368124999999999</v>
-      </c>
-      <c r="C44" s="10">
-        <v>45.482745000000001</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="B44" s="8">
+        <v>35.810277999999997</v>
+      </c>
+      <c r="C44" s="8">
+        <v>37.444443999999997</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="18"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -1638,79 +1654,79 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="13">
-      <c r="A45" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="15"/>
+      <c r="A45" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="14"/>
+      <c r="Z45" s="14"/>
     </row>
     <row r="46" spans="1:26" ht="13">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B46" s="4">
         <v>15.2791651</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="19">
         <v>37.071640549999998</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="13">
-      <c r="A47" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="15"/>
-      <c r="Y47" s="15"/>
-      <c r="Z47" s="15"/>
+      <c r="A47" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="14"/>
     </row>
     <row r="48" spans="1:26" ht="13">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B48" s="4">
         <v>22.952884999999998</v>
@@ -1721,7 +1737,7 @@
     </row>
     <row r="49" spans="1:26" ht="13">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B49" s="4">
         <v>9.1565619999999992</v>
@@ -1732,7 +1748,7 @@
     </row>
     <row r="50" spans="1:26" ht="13">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B50" s="4">
         <v>39.723311500000001</v>
@@ -1743,16 +1759,16 @@
     </row>
     <row r="51" spans="1:26" ht="13">
       <c r="A51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="10">
+        <v>61</v>
+      </c>
+      <c r="B51" s="8">
         <v>25.617764999999999</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="8">
         <v>43.074139000000002</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -1779,19 +1795,19 @@
     </row>
     <row r="52" spans="1:26" ht="13">
       <c r="A52" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="10">
+        <v>63</v>
+      </c>
+      <c r="B52" s="8">
         <v>22.868123000000001</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="8">
         <v>43.998116000000003</v>
       </c>
-      <c r="D52" s="12"/>
+      <c r="D52" s="11"/>
     </row>
     <row r="53" spans="1:26" ht="13">
       <c r="A53" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
